--- a/docentes/Martínez Sota Luis Rey - Estadisticos 20242.xlsx
+++ b/docentes/Martínez Sota Luis Rey - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
   <si>
     <t>Mat</t>
   </si>
@@ -76,94 +76,133 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COBOS</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>COBOS</t>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>JENKINS</t>
+  </si>
+  <si>
+    <t>PALOMINO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
   </si>
   <si>
     <t>MENDOZA</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>CRESCENCIO</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>PALOMINO</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>DE LOS SANTOS</t>
   </si>
   <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ESCOBEDO</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
     <t>VILLA</t>
   </si>
   <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
+    <t>TIZA</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
   </si>
   <si>
     <t>DIAZ</t>
   </si>
   <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
   </si>
   <si>
     <t>SOLANO</t>
@@ -172,75 +211,90 @@
     <t>CALIHUA</t>
   </si>
   <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>TIZA</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>YOLET</t>
+  </si>
+  <si>
+    <t>FABIAN ALEJANDRO</t>
   </si>
   <si>
     <t>URIEL</t>
   </si>
   <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO</t>
+  </si>
+  <si>
+    <t>ARTHUR RICHARD</t>
+  </si>
+  <si>
+    <t>AARON MIGUEL</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO</t>
+  </si>
+  <si>
     <t>ALEX URIEL</t>
   </si>
   <si>
-    <t>YOLET</t>
+    <t>CRISTIAN OSMAR</t>
   </si>
   <si>
     <t>ERIK OMAR</t>
   </si>
   <si>
+    <t>JOSUE GUSTAVO</t>
+  </si>
+  <si>
     <t>DIEGO ARMANDO</t>
   </si>
   <si>
-    <t>MIGUEL ANTONIO</t>
-  </si>
-  <si>
-    <t>AARON MIGUEL</t>
-  </si>
-  <si>
-    <t>CRISTINA YAJANI</t>
-  </si>
-  <si>
-    <t>IRVING</t>
+    <t>ALDAHIR</t>
+  </si>
+  <si>
+    <t>JORGE IVAN</t>
   </si>
   <si>
     <t>EDUARDO</t>
   </si>
   <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
     <t>IAN</t>
   </si>
   <si>
     <t>YAEL ISSAI</t>
   </si>
   <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>CRISTIAN OSMAR</t>
-  </si>
-  <si>
-    <t>JOSUE GUSTAVO</t>
-  </si>
-  <si>
     <t>ABDIEL NOE</t>
   </si>
   <si>
@@ -250,19 +304,7 @@
     <t>ERIK</t>
   </si>
   <si>
-    <t>JORGE IVAN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>AXEL MICHAELL</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
+    <t>CARLOS YAEL</t>
   </si>
 </sst>
 </file>
@@ -786,16 +828,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>58.33</v>
+      </c>
+      <c r="H2">
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -809,16 +854,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -832,16 +880,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
@@ -900,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>54.17</v>
+        <v>58.33</v>
       </c>
       <c r="H2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -926,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>74.19</v>
+        <v>70.97</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -952,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1006,22 +1057,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920045</v>
+        <v>21330051920007</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1029,22 +1080,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920212</v>
+        <v>22330051920413</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1052,39 +1103,39 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920007</v>
+        <v>23330051920045</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920192</v>
+        <v>22330051920177</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1093,90 +1144,90 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920033</v>
+        <v>22330051920188</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920038</v>
+        <v>22330051920190</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920043</v>
+        <v>22330051920371</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920336</v>
+        <v>22330051920031</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1185,27 +1236,27 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920028</v>
+        <v>22330051920038</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1213,22 +1264,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23330051920032</v>
+        <v>22330051920189</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1236,22 +1287,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>23330051920043</v>
+        <v>22330051920043</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1259,16 +1310,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920046</v>
+        <v>23330051920028</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1277,113 +1328,113 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920190</v>
+        <v>22330051920007</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920359</v>
+        <v>23330051920037</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>22330051920356</v>
+        <v>22330051920021</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>22330051920180</v>
+        <v>23330051920212</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>22330051920201</v>
+        <v>22330051920359</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1392,21 +1443,21 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>22330051920202</v>
+        <v>22330051920192</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1415,50 +1466,50 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>22330051920327</v>
+        <v>22330051920356</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>23330051920034</v>
+        <v>22330051920033</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1466,22 +1517,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>23330051920040</v>
+        <v>22330051920191</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1489,16 +1540,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>22330051920029</v>
+        <v>22330051920327</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1507,29 +1558,190 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22330051920048</v>
+        <v>23330051920032</v>
       </c>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23330051920040</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>23330051920043</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>23330051920046</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>22330051920180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>22330051920201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>22330051920202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>22330051920034</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="G31">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Martínez Sota Luis Rey - Estadisticos 20242.xlsx
+++ b/docentes/Martínez Sota Luis Rey - Estadisticos 20242.xlsx
@@ -112,6 +112,9 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>MEJIA</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>PEREZ</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>MENDEZ</t>
   </si>
   <si>
@@ -259,6 +259,9 @@
     <t>LEONEL</t>
   </si>
   <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
     <t>JOSE FRANCISCO</t>
   </si>
   <si>
@@ -281,9 +284,6 @@
   </si>
   <si>
     <t>JORGE IVAN</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
   </si>
   <si>
     <t>ALAN URIEL</t>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>22330051920021</v>
+        <v>23330051920032</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>23330051920212</v>
+        <v>22330051920021</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -1425,22 +1425,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>22330051920359</v>
+        <v>23330051920212</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>22330051920192</v>
+        <v>22330051920359</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>22330051920356</v>
+        <v>22330051920192</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>22330051920033</v>
+        <v>22330051920356</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22330051920191</v>
+        <v>22330051920033</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>22330051920327</v>
+        <v>22330051920191</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
@@ -1563,25 +1563,25 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>23330051920032</v>
+        <v>22330051920327</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
